--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T14:01:50+00:00</t>
+    <t>2025-01-17T14:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:38:13+00:00</t>
+    <t>2025-01-17T14:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:46:02+00:00</t>
+    <t>2025-01-20T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:10:20+00:00</t>
+    <t>2025-01-21T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T09:48:34+00:00</t>
+    <t>2025-01-21T10:26:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T10:26:00+00:00</t>
+    <t>2025-05-09T14:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T14:19:04+00:00</t>
+    <t>2025-05-14T13:09:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
+    <t>KEREVAL and DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+    <t>KEREVAL and DOMASIA team of the Signal and Image Processing Laboratory (LTSI) (https://github.com/ONCOFAIR)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T13:09:12+00:00</t>
+    <t>2025-05-16T07:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T07:42:08+00:00</t>
+    <t>2025-05-22T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
+++ b/main/ig/ValueSet-siph-renscomplement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:36:39+00:00</t>
+    <t>2025-05-22T14:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
